--- a/DataAnalysis/fileExcel/123.xlsx
+++ b/DataAnalysis/fileExcel/123.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac-pc/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac-pc/PycharmProjects/DataAnalysis/fileExcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="14800" yWindow="3500" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="8220" yWindow="8180" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -80,9 +80,6 @@
     <t>PURE ONE J1</t>
   </si>
   <si>
-    <t>A12</t>
-  </si>
-  <si>
     <t>z7wx71</t>
   </si>
   <si>
@@ -96,13 +93,16 @@
   </si>
   <si>
     <t>PURE ONE M C1</t>
+  </si>
+  <si>
+    <t>FLOOR ONE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -112,22 +112,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="PingFang SC"/>
-      <family val="3"/>
+      <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="PingFang SC"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
@@ -154,9 +148,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -437,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -446,7 +439,7 @@
     <col min="1" max="1" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,176 +447,176 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
-        <v>3404</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="B2">
+        <v>7604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="B3">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="B5">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="B7">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="2">
+      <c r="B19">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B20">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B21">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B22">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>